--- a/reports/resnet18_23_no_MMTM/prediction/8/probability_train_8.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/8/probability_train_8.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2343352288007736</v>
+        <v>0.0953204482793808</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7656647562980652</v>
+        <v>0.904679536819458</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8873882293701172</v>
+        <v>0.9233794212341309</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1126117408275604</v>
+        <v>0.07662060111761093</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1112800464034081</v>
+        <v>0.1318831294775009</v>
       </c>
       <c r="C4" t="n">
-        <v>0.888719916343689</v>
+        <v>0.8681168556213379</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7956347465515137</v>
+        <v>0.9012830257415771</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2043652236461639</v>
+        <v>0.09871700406074524</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1797730922698975</v>
+        <v>0.2228123992681503</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8202269077301025</v>
+        <v>0.7771875858306885</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3182810842990875</v>
+        <v>0.332283228635788</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6817189455032349</v>
+        <v>0.6677167415618896</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8861373662948608</v>
+        <v>0.4529988765716553</v>
       </c>
       <c r="C8" t="n">
-        <v>0.113862618803978</v>
+        <v>0.5470011234283447</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2801633477210999</v>
+        <v>0.3573664426803589</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7198366522789001</v>
+        <v>0.6426335573196411</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.243008941411972</v>
+        <v>0.4708784818649292</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7569910287857056</v>
+        <v>0.5291215181350708</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.967119574546814</v>
+        <v>0.8887879848480225</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03288039937615395</v>
+        <v>0.1112120449542999</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5239732265472412</v>
+        <v>0.4424015581607819</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4760267734527588</v>
+        <v>0.5575984716415405</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3467463254928589</v>
+        <v>0.3384792804718018</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6532536745071411</v>
+        <v>0.6615207195281982</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5803685188293457</v>
+        <v>0.4901134967803955</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4196314215660095</v>
+        <v>0.5098865628242493</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9811418056488037</v>
+        <v>0.571722149848938</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01885820738971233</v>
+        <v>0.428277850151062</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1789144426584244</v>
+        <v>0.07546915113925934</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8210855722427368</v>
+        <v>0.9245308041572571</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4943736493587494</v>
+        <v>0.4260274767875671</v>
       </c>
       <c r="C17" t="n">
-        <v>0.505626380443573</v>
+        <v>0.5739725232124329</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1398385167121887</v>
+        <v>0.1044449359178543</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8601614832878113</v>
+        <v>0.8955551385879517</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3287663459777832</v>
+        <v>0.1951336264610291</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6712336540222168</v>
+        <v>0.8048663139343262</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8137776255607605</v>
+        <v>0.6993511915206909</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1862223595380783</v>
+        <v>0.3006487488746643</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6429396867752075</v>
+        <v>0.6131852865219116</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3570602834224701</v>
+        <v>0.3868147432804108</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1145398318767548</v>
+        <v>0.07499964535236359</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8854602575302124</v>
+        <v>0.9250003099441528</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3058960437774658</v>
+        <v>0.1099070310592651</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6941039562225342</v>
+        <v>0.8900929689407349</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.07418004423379898</v>
+        <v>0.04537913575768471</v>
       </c>
       <c r="C24" t="n">
-        <v>0.925819993019104</v>
+        <v>0.9546208381652832</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.235163152217865</v>
+        <v>0.1469961255788803</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7648369073867798</v>
+        <v>0.8530038595199585</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1025327816605568</v>
+        <v>0.05823273584246635</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8974671959877014</v>
+        <v>0.9417672753334045</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.06974229216575623</v>
+        <v>0.04690555483102798</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9302576780319214</v>
+        <v>0.953094482421875</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1037670373916626</v>
+        <v>0.07336179167032242</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8962329626083374</v>
+        <v>0.9266381859779358</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3309914469718933</v>
+        <v>0.1247169971466064</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6690085530281067</v>
+        <v>0.8752830028533936</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.08083990216255188</v>
+        <v>0.05518677085638046</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9191601276397705</v>
+        <v>0.9448131918907166</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -921,10 +921,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1419074982404709</v>
+        <v>0.08327185362577438</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8580924272537231</v>
+        <v>0.916728138923645</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.09524978697299957</v>
+        <v>0.05297313258051872</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9047502279281616</v>
+        <v>0.9470268487930298</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9584680795669556</v>
+        <v>0.9610666036605835</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04153189435601234</v>
+        <v>0.03893342986702919</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1830593049526215</v>
+        <v>0.1315380036830902</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8169406652450562</v>
+        <v>0.8684620261192322</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -985,10 +985,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.958219587802887</v>
+        <v>0.9888209104537964</v>
       </c>
       <c r="C35" t="n">
-        <v>0.04178042337298393</v>
+        <v>0.01117912214249372</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1001,10 +1001,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9863712191581726</v>
+        <v>0.9792412519454956</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01362879108637571</v>
+        <v>0.02075878344476223</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1017,10 +1017,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4963893890380859</v>
+        <v>0.6118038892745972</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5036106109619141</v>
+        <v>0.3881961405277252</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.8457620143890381</v>
+        <v>0.7604658603668213</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1542379558086395</v>
+        <v>0.2395341247320175</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1049,10 +1049,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3596210181713104</v>
+        <v>0.6413464546203613</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6403789520263672</v>
+        <v>0.3586535453796387</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1270350366830826</v>
+        <v>0.07755809277296066</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8729649782180786</v>
+        <v>0.9224418997764587</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9865306615829468</v>
+        <v>0.9897243976593018</v>
       </c>
       <c r="C41" t="n">
-        <v>0.013469398021698</v>
+        <v>0.01027561910450459</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.4182148277759552</v>
+        <v>0.1765888631343842</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5817852020263672</v>
+        <v>0.8234111070632935</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.292246550321579</v>
+        <v>0.1875863075256348</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7077534198760986</v>
+        <v>0.8124136924743652</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1892226934432983</v>
+        <v>0.1500227451324463</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8107773065567017</v>
+        <v>0.8499772548675537</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1300830245018005</v>
+        <v>0.1512941271066666</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8699170351028442</v>
+        <v>0.8487058877944946</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.8738521337509155</v>
+        <v>0.7838401794433594</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1261478662490845</v>
+        <v>0.2161598801612854</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1177,10 +1177,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1709481626749039</v>
+        <v>0.1116258576512337</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8290518522262573</v>
+        <v>0.8883741497993469</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1623045355081558</v>
+        <v>0.1331682950258255</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8376954793930054</v>
+        <v>0.8668317794799805</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1646929532289505</v>
+        <v>0.1143858134746552</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8353070616722107</v>
+        <v>0.8856141567230225</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -1225,10 +1225,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2262888550758362</v>
+        <v>0.2437013685703278</v>
       </c>
       <c r="C50" t="n">
-        <v>0.773711085319519</v>
+        <v>0.7562986612319946</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.3225296437740326</v>
+        <v>0.3846801817417145</v>
       </c>
       <c r="C51" t="n">
-        <v>0.677470326423645</v>
+        <v>0.6153197884559631</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2426091134548187</v>
+        <v>0.2701556980609894</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7573908567428589</v>
+        <v>0.729844331741333</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -1273,10 +1273,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1218969374895096</v>
+        <v>0.08190562576055527</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8781030178070068</v>
+        <v>0.9180943965911865</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1502606421709061</v>
+        <v>0.1282093971967697</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8497393727302551</v>
+        <v>0.8717906475067139</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2983030080795288</v>
+        <v>0.5041055679321289</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7016969919204712</v>
+        <v>0.4958944320678711</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1321,10 +1321,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9802584648132324</v>
+        <v>0.9857323169708252</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01974154263734818</v>
+        <v>0.01426766626536846</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1732561886310577</v>
+        <v>0.1005385965108871</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8267437815666199</v>
+        <v>0.8994613885879517</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1353,10 +1353,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.05857296288013458</v>
+        <v>0.0612732321023941</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9414269924163818</v>
+        <v>0.9387267827987671</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.3915440142154694</v>
+        <v>0.7221495509147644</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6084559559822083</v>
+        <v>0.2778504192829132</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2632448971271515</v>
+        <v>0.3299806118011475</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7367550730705261</v>
+        <v>0.6700194478034973</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -1401,10 +1401,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.9511592388153076</v>
+        <v>0.782764196395874</v>
       </c>
       <c r="C61" t="n">
-        <v>0.04884076490998268</v>
+        <v>0.2172358334064484</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.2068475782871246</v>
+        <v>0.2389347702264786</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7931524515151978</v>
+        <v>0.7610652446746826</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -1433,10 +1433,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2509323954582214</v>
+        <v>0.1373385637998581</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7490676641464233</v>
+        <v>0.8626614809036255</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -1449,10 +1449,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.3255688548088074</v>
+        <v>0.3403209149837494</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6744311451911926</v>
+        <v>0.6596790552139282</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
@@ -1465,10 +1465,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2815473973751068</v>
+        <v>0.1110703274607658</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7184526324272156</v>
+        <v>0.8889297246932983</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1143731623888016</v>
+        <v>0.08758297562599182</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8856268525123596</v>
+        <v>0.9124170541763306</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.08218681812286377</v>
+        <v>0.1185243055224419</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9178131818771362</v>
+        <v>0.8814756870269775</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -1513,10 +1513,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.8637155294418335</v>
+        <v>0.6838402152061462</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1362844258546829</v>
+        <v>0.3161597847938538</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.09939999878406525</v>
+        <v>0.1282083988189697</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9005999565124512</v>
+        <v>0.8717916011810303</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
@@ -1545,10 +1545,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.9861621856689453</v>
+        <v>0.9874924421310425</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0138377882540226</v>
+        <v>0.01250753179192543</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1561,10 +1561,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.09961742162704468</v>
+        <v>0.05630477145314217</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9003825187683105</v>
+        <v>0.9436951875686646</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.2796697616577148</v>
+        <v>0.2253571450710297</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7203302979469299</v>
+        <v>0.7746428251266479</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
@@ -1593,10 +1593,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.7895004749298096</v>
+        <v>0.5780975222587585</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2104995250701904</v>
+        <v>0.4219024777412415</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.6367625594139099</v>
+        <v>0.913927435874939</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3632374405860901</v>
+        <v>0.08607253432273865</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.09862899780273438</v>
+        <v>0.1082485318183899</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9013710021972656</v>
+        <v>0.8917514681816101</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
@@ -1641,10 +1641,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.9582347869873047</v>
+        <v>0.9705935716629028</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0417652353644371</v>
+        <v>0.02940642274916172</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.08790569752454758</v>
+        <v>0.05465569347143173</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9120942950248718</v>
+        <v>0.9453443288803101</v>
       </c>
       <c r="D77" t="n">
         <v>1</v>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.4572717249393463</v>
+        <v>0.7423492670059204</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5427282452583313</v>
+        <v>0.257650762796402</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.2031433284282684</v>
+        <v>0.1944418102502823</v>
       </c>
       <c r="C79" t="n">
-        <v>0.796856701374054</v>
+        <v>0.8055581450462341</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.06639464199542999</v>
+        <v>0.05528726056218147</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9336053133010864</v>
+        <v>0.94471275806427</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.2209940403699875</v>
+        <v>0.2066871821880341</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7790060043334961</v>
+        <v>0.7933127880096436</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -1737,10 +1737,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.09508096426725388</v>
+        <v>0.04960738494992256</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9049189686775208</v>
+        <v>0.9503926634788513</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.4522457122802734</v>
+        <v>0.4375362992286682</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5477542877197266</v>
+        <v>0.5624637007713318</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -1769,10 +1769,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.8720294237136841</v>
+        <v>0.7997516393661499</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1279705911874771</v>
+        <v>0.2002483457326889</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -1785,10 +1785,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.4798318147659302</v>
+        <v>0.4097397327423096</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5201681852340698</v>
+        <v>0.5902602672576904</v>
       </c>
       <c r="D85" t="n">
         <v>1</v>
@@ -1801,10 +1801,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.2089124768972397</v>
+        <v>0.1853359043598175</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7910875082015991</v>
+        <v>0.8146641254425049</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.09705088287591934</v>
+        <v>0.08159932494163513</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9029490947723389</v>
+        <v>0.9184006452560425</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.9481186270713806</v>
+        <v>0.8500217199325562</v>
       </c>
       <c r="C88" t="n">
-        <v>0.05188136547803879</v>
+        <v>0.1499783098697662</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.9785525798797607</v>
+        <v>0.9839248657226562</v>
       </c>
       <c r="C89" t="n">
-        <v>0.02144744619727135</v>
+        <v>0.01607516221702099</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.2597168385982513</v>
+        <v>0.3908868730068207</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7402831315994263</v>
+        <v>0.6091130971908569</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.1283687949180603</v>
+        <v>0.06181103736162186</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8716312646865845</v>
+        <v>0.9381889700889587</v>
       </c>
       <c r="D91" t="n">
         <v>1</v>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.1670579165220261</v>
+        <v>0.1007834225893021</v>
       </c>
       <c r="C92" t="n">
-        <v>0.832942008972168</v>
+        <v>0.8992165327072144</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.1754366457462311</v>
+        <v>0.09893979132175446</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8245633840560913</v>
+        <v>0.9010602235794067</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
@@ -1929,10 +1929,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.8845038414001465</v>
+        <v>0.8186168670654297</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1154961585998535</v>
+        <v>0.1813831329345703</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -1945,10 +1945,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.2728398442268372</v>
+        <v>0.0834449827671051</v>
       </c>
       <c r="C95" t="n">
-        <v>0.7271600961685181</v>
+        <v>0.9165550470352173</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.3577435910701752</v>
+        <v>0.2510005235671997</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6422564387321472</v>
+        <v>0.7489994764328003</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -1977,10 +1977,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.1064355000853539</v>
+        <v>0.09712040424346924</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8935644626617432</v>
+        <v>0.9028795957565308</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -1993,10 +1993,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.8089250326156616</v>
+        <v>0.7227565050125122</v>
       </c>
       <c r="C98" t="n">
-        <v>0.191074937582016</v>
+        <v>0.2772435545921326</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.1315916776657104</v>
+        <v>0.06167013198137283</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8684083223342896</v>
+        <v>0.938329815864563</v>
       </c>
       <c r="D99" t="n">
         <v>1</v>
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.2126596719026566</v>
+        <v>0.1012320592999458</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7873402833938599</v>
+        <v>0.8987679481506348</v>
       </c>
       <c r="D100" t="n">
         <v>1</v>
@@ -2041,10 +2041,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.0678083524107933</v>
+        <v>0.05590857565402985</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9321916103363037</v>
+        <v>0.9440913796424866</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
@@ -2057,10 +2057,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.1241121888160706</v>
+        <v>0.0711938738822937</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8758878707885742</v>
+        <v>0.9288060665130615</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.5229607820510864</v>
+        <v>0.4762332439422607</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4770391583442688</v>
+        <v>0.5237667560577393</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.6961715817451477</v>
+        <v>0.8582509756088257</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3038284480571747</v>
+        <v>0.1417490094900131</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -2105,10 +2105,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.1945301592350006</v>
+        <v>0.166552260518074</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8054698705673218</v>
+        <v>0.8334477543830872</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -2121,10 +2121,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.913476824760437</v>
+        <v>0.8560799360275269</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0865231528878212</v>
+        <v>0.1439200788736343</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.266622006893158</v>
+        <v>0.1599103063344955</v>
       </c>
       <c r="C107" t="n">
-        <v>0.733377993106842</v>
+        <v>0.8400896787643433</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -2153,10 +2153,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.08755741268396378</v>
+        <v>0.04642832651734352</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9124425649642944</v>
+        <v>0.9535716772079468</v>
       </c>
       <c r="D108" t="n">
         <v>1</v>
@@ -2169,10 +2169,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.09672264754772186</v>
+        <v>0.04819635674357414</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9032773971557617</v>
+        <v>0.9518036246299744</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
@@ -2185,10 +2185,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.1274634897708893</v>
+        <v>0.09187047183513641</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8725365400314331</v>
+        <v>0.9081295728683472</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
@@ -2201,10 +2201,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.07914470881223679</v>
+        <v>0.0809282585978508</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9208552837371826</v>
+        <v>0.9190717935562134</v>
       </c>
       <c r="D111" t="n">
         <v>1</v>
@@ -2217,10 +2217,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.1677741557359695</v>
+        <v>0.131160244345665</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8322257995605469</v>
+        <v>0.8688397407531738</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.1979913413524628</v>
+        <v>0.09509176015853882</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8020086288452148</v>
+        <v>0.9049082398414612</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.07430229336023331</v>
+        <v>0.05456424877047539</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9256976842880249</v>
+        <v>0.9454357624053955</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.9826882481575012</v>
+        <v>0.9819413423538208</v>
       </c>
       <c r="C115" t="n">
-        <v>0.01731176115572453</v>
+        <v>0.01805868558585644</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.1620317250490189</v>
+        <v>0.1900841444730759</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8379682302474976</v>
+        <v>0.8099159002304077</v>
       </c>
       <c r="D116" t="n">
         <v>1</v>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.07476268708705902</v>
+        <v>0.06346440315246582</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9252372980117798</v>
+        <v>0.9365355968475342</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.5932565927505493</v>
+        <v>0.4770048260688782</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4067434072494507</v>
+        <v>0.5229951143264771</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.1303157359361649</v>
+        <v>0.1047962382435799</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8696842789649963</v>
+        <v>0.8952038288116455</v>
       </c>
       <c r="D119" t="n">
         <v>1</v>
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.9246072173118591</v>
+        <v>0.936821460723877</v>
       </c>
       <c r="C120" t="n">
-        <v>0.07539279758930206</v>
+        <v>0.06317853927612305</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -2361,10 +2361,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.4668357074260712</v>
+        <v>0.4780342876911163</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5331642627716064</v>
+        <v>0.5219657421112061</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.3903822898864746</v>
+        <v>0.3187547326087952</v>
       </c>
       <c r="C122" t="n">
-        <v>0.6096177101135254</v>
+        <v>0.6812452673912048</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
@@ -2393,10 +2393,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.2337047159671783</v>
+        <v>0.1334709376096725</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7662952542304993</v>
+        <v>0.866529107093811</v>
       </c>
       <c r="D123" t="n">
         <v>1</v>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.3025553524494171</v>
+        <v>0.1619869917631149</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6974446773529053</v>
+        <v>0.8380130529403687</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.3367321789264679</v>
+        <v>0.3531014025211334</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6632678508758545</v>
+        <v>0.6468985676765442</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.5542993545532227</v>
+        <v>0.4869450330734253</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4457005858421326</v>
+        <v>0.5130549073219299</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.3194941282272339</v>
+        <v>0.2348751723766327</v>
       </c>
       <c r="C127" t="n">
-        <v>0.6805058717727661</v>
+        <v>0.7651248574256897</v>
       </c>
       <c r="D127" t="n">
         <v>1</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.2038353681564331</v>
+        <v>0.2457635402679443</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7961646318435669</v>
+        <v>0.7542364597320557</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.2951263189315796</v>
+        <v>0.1349493563175201</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7048736810684204</v>
+        <v>0.8650506734848022</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -2505,10 +2505,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.9436674118041992</v>
+        <v>0.794336199760437</v>
       </c>
       <c r="C130" t="n">
-        <v>0.05633260309696198</v>
+        <v>0.2056637704372406</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.9711838960647583</v>
+        <v>0.984700083732605</v>
       </c>
       <c r="C131" t="n">
-        <v>0.02881610579788685</v>
+        <v>0.01529986970126629</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -2537,10 +2537,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.3502005934715271</v>
+        <v>0.2762241661548615</v>
       </c>
       <c r="C132" t="n">
-        <v>0.6497993469238281</v>
+        <v>0.7237758636474609</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -2553,10 +2553,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.1619133055210114</v>
+        <v>0.09443749487400055</v>
       </c>
       <c r="C133" t="n">
-        <v>0.838086724281311</v>
+        <v>0.9055625200271606</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.1907655745744705</v>
+        <v>0.06889879703521729</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8092344999313354</v>
+        <v>0.9311012029647827</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -2585,10 +2585,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.1194927096366882</v>
+        <v>0.2127195298671722</v>
       </c>
       <c r="C135" t="n">
-        <v>0.8805072903633118</v>
+        <v>0.7872804403305054</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
@@ -2601,10 +2601,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.8975242376327515</v>
+        <v>0.6654229760169983</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1024757623672485</v>
+        <v>0.3345770239830017</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.9903076887130737</v>
+        <v>0.9097224473953247</v>
       </c>
       <c r="C137" t="n">
-        <v>0.009692290797829628</v>
+        <v>0.0902775377035141</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.7612001299858093</v>
+        <v>0.797649621963501</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2387998551130295</v>
+        <v>0.2023503333330154</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -2649,10 +2649,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.336670309305191</v>
+        <v>0.2209925353527069</v>
       </c>
       <c r="C139" t="n">
-        <v>0.6633297204971313</v>
+        <v>0.7790074348449707</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.2286904901266098</v>
+        <v>0.1054400429129601</v>
       </c>
       <c r="C140" t="n">
-        <v>0.771309494972229</v>
+        <v>0.8945599794387817</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.1225439980626106</v>
+        <v>0.06010914221405983</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8774559497833252</v>
+        <v>0.9398908615112305</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -2697,10 +2697,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.1757645606994629</v>
+        <v>0.2030196934938431</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8242354393005371</v>
+        <v>0.7969803214073181</v>
       </c>
       <c r="D142" t="n">
         <v>1</v>
@@ -2713,10 +2713,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.07392850518226624</v>
+        <v>0.05672473460435867</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9260715246200562</v>
+        <v>0.9432752132415771</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -2729,10 +2729,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.7913964986801147</v>
+        <v>0.5710228681564331</v>
       </c>
       <c r="C144" t="n">
-        <v>0.2086035311222076</v>
+        <v>0.4289771318435669</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.9475302696228027</v>
+        <v>0.9371437430381775</v>
       </c>
       <c r="C145" t="n">
-        <v>0.05246973782777786</v>
+        <v>0.06285625696182251</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.1144276037812233</v>
+        <v>0.04790802299976349</v>
       </c>
       <c r="C146" t="n">
-        <v>0.8855724334716797</v>
+        <v>0.9520919919013977</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -2777,10 +2777,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.4576879143714905</v>
+        <v>0.2307147681713104</v>
       </c>
       <c r="C147" t="n">
-        <v>0.5423120856285095</v>
+        <v>0.7692852020263672</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
@@ -2793,10 +2793,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.4778292179107666</v>
+        <v>0.5205706357955933</v>
       </c>
       <c r="C148" t="n">
-        <v>0.5221707820892334</v>
+        <v>0.4794293344020844</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.159786269068718</v>
+        <v>0.1337820589542389</v>
       </c>
       <c r="C149" t="n">
-        <v>0.8402137756347656</v>
+        <v>0.8662179708480835</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
@@ -2825,10 +2825,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.3082281947135925</v>
+        <v>0.3237857520580292</v>
       </c>
       <c r="C150" t="n">
-        <v>0.6917718052864075</v>
+        <v>0.6762142181396484</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -2841,10 +2841,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.8885067701339722</v>
+        <v>0.8807143568992615</v>
       </c>
       <c r="C151" t="n">
-        <v>0.111493207514286</v>
+        <v>0.1192856580018997</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.6949499845504761</v>
+        <v>0.6083030700683594</v>
       </c>
       <c r="C152" t="n">
-        <v>0.3050500154495239</v>
+        <v>0.3916969001293182</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.1536915004253387</v>
+        <v>0.2573288083076477</v>
       </c>
       <c r="C153" t="n">
-        <v>0.8463084697723389</v>
+        <v>0.7426712512969971</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.6659550070762634</v>
+        <v>0.6026979684829712</v>
       </c>
       <c r="C154" t="n">
-        <v>0.3340449631214142</v>
+        <v>0.3973020017147064</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -2905,10 +2905,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.09897765517234802</v>
+        <v>0.06972357630729675</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9010223150253296</v>
+        <v>0.9302763938903809</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -2921,10 +2921,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.0843179002404213</v>
+        <v>0.06957297772169113</v>
       </c>
       <c r="C156" t="n">
-        <v>0.9156821370124817</v>
+        <v>0.9304270148277283</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
@@ -2937,10 +2937,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.8549708127975464</v>
+        <v>0.7800300121307373</v>
       </c>
       <c r="C157" t="n">
-        <v>0.1450291574001312</v>
+        <v>0.2199699878692627</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.4182303249835968</v>
+        <v>0.3212620913982391</v>
       </c>
       <c r="C158" t="n">
-        <v>0.5817697048187256</v>
+        <v>0.6787378787994385</v>
       </c>
       <c r="D158" t="n">
         <v>1</v>
@@ -2969,10 +2969,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.4284794926643372</v>
+        <v>0.1604765057563782</v>
       </c>
       <c r="C159" t="n">
-        <v>0.5715205073356628</v>
+        <v>0.8395234346389771</v>
       </c>
       <c r="D159" t="n">
         <v>1</v>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.2680138945579529</v>
+        <v>0.4371715188026428</v>
       </c>
       <c r="C160" t="n">
-        <v>0.7319860458374023</v>
+        <v>0.5628284215927124</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.2822099328041077</v>
+        <v>0.214433029294014</v>
       </c>
       <c r="C161" t="n">
-        <v>0.7177900075912476</v>
+        <v>0.7855669260025024</v>
       </c>
       <c r="D161" t="n">
         <v>1</v>
@@ -3017,10 +3017,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.2816427052021027</v>
+        <v>0.08064372837543488</v>
       </c>
       <c r="C162" t="n">
-        <v>0.7183573246002197</v>
+        <v>0.9193562865257263</v>
       </c>
       <c r="D162" t="n">
         <v>1</v>
@@ -3033,10 +3033,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.5360465049743652</v>
+        <v>0.2435425370931625</v>
       </c>
       <c r="C163" t="n">
-        <v>0.4639534652233124</v>
+        <v>0.7564574480056763</v>
       </c>
       <c r="D163" t="n">
         <v>1</v>
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.1027563661336899</v>
+        <v>0.1015098616480827</v>
       </c>
       <c r="C164" t="n">
-        <v>0.8972436189651489</v>
+        <v>0.8984900712966919</v>
       </c>
       <c r="D164" t="n">
         <v>1</v>
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.52010577917099</v>
+        <v>0.1996663957834244</v>
       </c>
       <c r="C165" t="n">
-        <v>0.4798942506313324</v>
+        <v>0.8003336191177368</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.9585274457931519</v>
+        <v>0.9155532717704773</v>
       </c>
       <c r="C166" t="n">
-        <v>0.04147251695394516</v>
+        <v>0.08444672822952271</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.1029364764690399</v>
+        <v>0.2477772384881973</v>
       </c>
       <c r="C167" t="n">
-        <v>0.8970635533332825</v>
+        <v>0.7522227764129639</v>
       </c>
       <c r="D167" t="n">
         <v>1</v>
@@ -3113,10 +3113,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.09629324078559875</v>
+        <v>0.06602698564529419</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9037067890167236</v>
+        <v>0.9339730143547058</v>
       </c>
       <c r="D168" t="n">
         <v>1</v>
@@ -3129,10 +3129,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.1401219367980957</v>
+        <v>0.06902299821376801</v>
       </c>
       <c r="C169" t="n">
-        <v>0.8598780632019043</v>
+        <v>0.9309769868850708</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
@@ -3145,10 +3145,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.1328327655792236</v>
+        <v>0.1269038766622543</v>
       </c>
       <c r="C170" t="n">
-        <v>0.8671672344207764</v>
+        <v>0.8730961680412292</v>
       </c>
       <c r="D170" t="n">
         <v>1</v>
